--- a/orcamento.xlsx
+++ b/orcamento.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAFÉ EM PO PACOTE C/ 500G - MARCA QUITADA, BRASILEIRO OU SIMILAR</t>
+          <t>TUBO PVC PBA PBJEI CL15 DN 50MM X 6M</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PAPEL HIGIENICO BRANCO -  NEUTRO - FOLHAS SIMPLES 30X10CM - PCT C/ 8 ROLOS - ALTA QUALIDADE</t>
+          <t>TUBO PVC PBA PBJEI CL15 DN 75MM X 6M</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -479,7 +479,11 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TUBO PVC PBA PBJE CL 15 DN 100MM X 6M</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
     </row>
   </sheetData>

--- a/orcamento.xlsx
+++ b/orcamento.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,6 +486,39 @@
       </c>
       <c r="C4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TUBO PVC DEFOFO 1 MPA PBJEI DN 150MM X 6M</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TUBO PVC DEFOFO 1 MPA PBJEI DN 200MM X 6M</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TUBO PVC DEFOFO 1 MPA PB JEI DN 250MM X 6M</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/orcamento.xlsx
+++ b/orcamento.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TUBO PVC PBA PBJEI CL15 DN 50MM X 6M</t>
+          <t>COTOVELO/JOELHO 90 PVC ROSCAVEL 3/4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -464,59 +464,35 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TUBO PVC PBA PBJEI CL15 DN 75MM X 6M</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>TUBO PVC PBA PBJE CL 15 DN 100MM X 6M</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>TUBO PVC DEFOFO 1 MPA PBJEI DN 150MM X 6M</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TUBO PVC DEFOFO 1 MPA PBJEI DN 200MM X 6M</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TUBO PVC DEFOFO 1 MPA PB JEI DN 250MM X 6M</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
     </row>
   </sheetData>

--- a/orcamento.xlsx
+++ b/orcamento.xlsx
@@ -464,36 +464,76 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAFÉ EM PO PACOTE C/ 500G - MARCA QUITADA, BRASILEIRO OU SIMILAR</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>AREIA LAVADA (M³)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ARQUIVO MORTO POLIONDA AZUL - PRE  MONTADO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CAPA DE PAPEL P/CD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ESPONJA DE LÃ DE AÇO - 60G PCT C/ 8 UNIDADES</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
